--- a/Portfolio/images/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023 (1).xlsx
+++ b/Portfolio/images/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023 (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoma\OneDrive\Bureau\IMIE\E4 et E5 BTS Blanc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoma\OneDrive\Bureau\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893E8174-B783-4E29-975A-72F1594C983C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7012BE46-963C-45EB-8448-EDD4D13D86D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$34</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,21 +28,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
   <si>
-    <t>SESSION 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
   </si>
   <si>
     <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
     <t>Centre de formation :</t>
@@ -121,76 +115,88 @@
 </t>
   </si>
   <si>
-    <t>Réalisation d'un site responsive - My food project (UI UX, RGPD BASE DE DONNES )</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>GLPI</t>
-  </si>
-  <si>
-    <t>portfolio</t>
-  </si>
-  <si>
-    <t>2023-2025</t>
-  </si>
-  <si>
-    <t>Bibliobus</t>
-  </si>
-  <si>
     <t>2023-2024</t>
   </si>
   <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>JavaScript</t>
-  </si>
-  <si>
     <t>Réalisations en milieu professionnel en cours de première année</t>
   </si>
   <si>
-    <t>Réalisation d'une GPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tickets </t>
-  </si>
-  <si>
-    <t>Requêtes SQL</t>
-  </si>
-  <si>
-    <t>Dépannage de materiels informatique (rajouter photo)(tableau excel de toutes les missions réalisé)</t>
-  </si>
-  <si>
-    <t>Réalisation de procédures</t>
-  </si>
-  <si>
-    <t>Active Directory</t>
-  </si>
-  <si>
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
     <t>2024-2025</t>
   </si>
   <si>
-    <t>php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adresse URL du portfolio :   </t>
-  </si>
-  <si>
-    <t>OWASP</t>
+    <t>du 09/10/2023 au 13/10/2023</t>
+  </si>
+  <si>
+    <t>du 26/02/2024 au 28/02/2024</t>
+  </si>
+  <si>
+    <t>Réalisation de mon portfolio en html, css</t>
+  </si>
+  <si>
+    <t>du 20/10/2023 à aujourd'hui</t>
+  </si>
+  <si>
+    <t>La réalisation d'un client lourd en javaFX pour le projet de fin d'année bibliobus</t>
+  </si>
+  <si>
+    <t>du 26/04/2024 à aujourd'hui</t>
+  </si>
+  <si>
+    <t>Reproduction d'un site en html, css à partir d'une capture d'écran</t>
+  </si>
+  <si>
+    <t>du 14/01/2024 au 22/01/2024</t>
+  </si>
+  <si>
+    <t>Dépannage de materiels informatique</t>
+  </si>
+  <si>
+    <t>Réalisation d'une GPO pour une ouverture d'image</t>
+  </si>
+  <si>
+    <t>Réalisation de procédures divers pour utilisateurs et service informatique</t>
+  </si>
+  <si>
+    <t>Administrateur Active Directory</t>
+  </si>
+  <si>
+    <t>Requêtes SQL sur notre base de données lié a des statistiques ou changement sur utilisateurs</t>
+  </si>
+  <si>
+    <t>Remplacement de tous les photocopieurs arrivés à échéance</t>
+  </si>
+  <si>
+    <t>du 02/2025 à aujourd'hui</t>
+  </si>
+  <si>
+    <t>N° candidat : 02148397793</t>
+  </si>
+  <si>
+    <t>SESSION 2025</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio :                                                                                                   https://portfolio-leo-m.vercel.app/</t>
+  </si>
+  <si>
+    <t>Mise en place d'un GLPI sous Windows avec WAMP</t>
+  </si>
+  <si>
+    <t>Réalisation d'un site en html, css, les css contenants des responsives pour s'adapter aux différentes tailles d'écran</t>
+  </si>
+  <si>
+    <t>Mise en place d'un GLPI sous Windows avec WAMP pour l'inventaire et une meilleure gestion.</t>
+  </si>
+  <si>
+    <t>Traitement et réalisation de tickets et hotline</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -200,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -258,15 +264,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -754,52 +754,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1176,10 +1176,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ81"/>
+  <dimension ref="A1:AQ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1201,13 +1201,13 @@
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -1219,14 +1219,14 @@
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
       <c r="E3" s="33"/>
       <c r="F3" s="37" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="38"/>
@@ -1236,25 +1236,25 @@
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
       <c r="F4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>6</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="50"/>
       <c r="C5" s="50"/>
@@ -1266,50 +1266,50 @@
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
       <c r="B7" s="48"/>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="F7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="G7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="H7" s="20" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>22</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
@@ -1394,23 +1394,25 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="20">
-        <v>45323</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16" t="s">
-        <v>26</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="27"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1447,27 +1449,21 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="20">
-        <v>45566</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>26</v>
-      </c>
+    <row r="10" spans="1:43" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1504,22 +1500,22 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16" t="s">
-        <v>26</v>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1557,26 +1553,26 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>26</v>
+      <c r="B12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1614,21 +1610,21 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="20">
-        <v>45627</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16" t="s">
-        <v>25</v>
-      </c>
+    <row r="13" spans="1:43" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1666,20 +1662,14 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="20">
-        <v>45566</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1717,20 +1707,14 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="20">
-        <v>45444</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1768,22 +1752,14 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="20">
-        <v>45323</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1821,20 +1797,14 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="27">
-        <v>45413</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29" t="s">
-        <v>25</v>
-      </c>
+      <c r="A17" s="21"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1871,23 +1841,17 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="20">
-        <v>45566</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1924,17 +1888,25 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
+      <c r="B19" s="18">
+        <v>45396</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27" t="s">
+        <v>49</v>
+      </c>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1973,22 +1945,24 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="21">
-        <v>45396</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -2028,24 +2002,22 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -2085,22 +2057,24 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -2140,24 +2114,24 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -2197,24 +2171,26 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -2253,28 +2229,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>26</v>
-      </c>
+      <c r="A25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2311,15 +2273,17 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2356,17 +2320,27 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>49</v>
+      </c>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2405,24 +2379,22 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>26</v>
+      <c r="C28" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -2462,22 +2434,24 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16" t="s">
-        <v>26</v>
+      <c r="C29" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -2517,24 +2491,24 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>26</v>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -2574,24 +2548,26 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>26</v>
+      <c r="C31" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -2629,28 +2605,26 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -2688,15 +2662,29 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2733,15 +2721,15 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2778,51 +2766,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
-      <c r="AK35"/>
-      <c r="AL35"/>
-      <c r="AM35"/>
-      <c r="AN35"/>
-      <c r="AO35"/>
-      <c r="AP35"/>
-      <c r="AQ35"/>
-    </row>
+    <row r="35" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2868,14 +2812,13 @@
     <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A26:H26"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="G1:H1"/>
@@ -2887,7 +2830,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>